--- a/municipal/ENG/Education/Preschool and Education Institutions/Kvemo Kartli/C. Rustavi.xlsx
+++ b/municipal/ENG/Education/Preschool and Education Institutions/Kvemo Kartli/C. Rustavi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Social Statistic\სკოლამდელი აღზრდისა და განათლების დაწესებულებები\ქვემო ქართლი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\Preschool and Education Institutions\Kvemo Kartli\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -95,7 +95,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -105,7 +105,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                     </t>
+      <t xml:space="preserve">municipality                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                </t>
     </r>
   </si>
 </sst>
@@ -354,6 +354,9 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -367,14 +370,11 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,7 +659,7 @@
   <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,16 +674,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
@@ -691,16 +691,16 @@
       <c r="M1" s="21"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -737,11 +737,11 @@
       <c r="R3" s="24"/>
     </row>
     <row r="4" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="15">
         <v>20</v>
       </c>
@@ -769,11 +769,11 @@
       <c r="R4" s="26"/>
     </row>
     <row r="5" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="15">
         <v>6260</v>
       </c>
@@ -801,11 +801,11 @@
       <c r="R5" s="26"/>
     </row>
     <row r="6" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="15">
         <v>381</v>
       </c>
@@ -833,11 +833,11 @@
       <c r="R6" s="26"/>
     </row>
     <row r="7" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="16">
         <v>16.430446194225723</v>
       </c>
@@ -875,11 +875,11 @@
       <c r="AB7" s="22"/>
     </row>
     <row r="8" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="18">
         <v>48.967842364223749</v>
       </c>
@@ -912,11 +912,11 @@
       <c r="AB8" s="22"/>
     </row>
     <row r="9" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="20">
         <v>6391.95</v>
       </c>
@@ -938,11 +938,11 @@
       <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -951,11 +951,11 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:28" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
